--- a/techniqo/data_new_ticker/HAL.xlsx
+++ b/techniqo/data_new_ticker/HAL.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G610"/>
+  <dimension ref="A1:G612"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21776,6 +21776,56 @@
         <v>18519</v>
       </c>
     </row>
+    <row r="611">
+      <c r="A611" t="inlineStr">
+        <is>
+          <t>15-09-2020</t>
+        </is>
+      </c>
+      <c r="B611" t="n">
+        <v>841</v>
+      </c>
+      <c r="C611" t="n">
+        <v>860</v>
+      </c>
+      <c r="D611" t="n">
+        <v>822.25</v>
+      </c>
+      <c r="E611" t="n">
+        <v>842.5</v>
+      </c>
+      <c r="F611" t="n">
+        <v>1313669</v>
+      </c>
+      <c r="G611" t="n">
+        <v>18520</v>
+      </c>
+    </row>
+    <row r="612">
+      <c r="A612" t="inlineStr">
+        <is>
+          <t>16-09-2020</t>
+        </is>
+      </c>
+      <c r="B612" t="n">
+        <v>846.85</v>
+      </c>
+      <c r="C612" t="n">
+        <v>851</v>
+      </c>
+      <c r="D612" t="n">
+        <v>838</v>
+      </c>
+      <c r="E612" t="n">
+        <v>840.85</v>
+      </c>
+      <c r="F612" t="n">
+        <v>471553</v>
+      </c>
+      <c r="G612" t="n">
+        <v>18521</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/techniqo/data_new_ticker/HAL.xlsx
+++ b/techniqo/data_new_ticker/HAL.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G612"/>
+  <dimension ref="A1:G614"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21826,6 +21826,56 @@
         <v>18521</v>
       </c>
     </row>
+    <row r="613">
+      <c r="A613" t="inlineStr">
+        <is>
+          <t>17-09-2020</t>
+        </is>
+      </c>
+      <c r="B613" t="n">
+        <v>840.2</v>
+      </c>
+      <c r="C613" t="n">
+        <v>845</v>
+      </c>
+      <c r="D613" t="n">
+        <v>828.05</v>
+      </c>
+      <c r="E613" t="n">
+        <v>830</v>
+      </c>
+      <c r="F613" t="n">
+        <v>399573</v>
+      </c>
+      <c r="G613" t="n">
+        <v>18522</v>
+      </c>
+    </row>
+    <row r="614">
+      <c r="A614" t="inlineStr">
+        <is>
+          <t>18-09-2020</t>
+        </is>
+      </c>
+      <c r="B614" t="n">
+        <v>835.2</v>
+      </c>
+      <c r="C614" t="n">
+        <v>849.85</v>
+      </c>
+      <c r="D614" t="n">
+        <v>831.2</v>
+      </c>
+      <c r="E614" t="n">
+        <v>841.9</v>
+      </c>
+      <c r="F614" t="n">
+        <v>722873</v>
+      </c>
+      <c r="G614" t="n">
+        <v>18523</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
